--- a/medicine/Psychotrope/Brasserie_Affligem/Brasserie_Affligem.xlsx
+++ b/medicine/Psychotrope/Brasserie_Affligem/Brasserie_Affligem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Affligem (en néerlandais : Affligem Brouwerij) est une brasserie située à Opwijk dans la province du Brabant flamand en Belgique. Elle produit, entre autres, les bières d'abbaye reconnues Affligem et Postel.
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine de cette entreprise vient de la brasserie De Smedt fondée à Opwijk aux alentours de 1790. Cette brasserie prend de l'extension à la suite de la production en 1935 de la bière Op-Ale faisant référence à la localité où l'entreprise se situe. Cette bière est d'ailleurs couronnée d'une médaille d'or lors de l'Exposition universelle de 1935 à Bruxelles. 
 Depuis 1970, la brasserie produit aussi la bière d'abbaye Affligem. En 1988, vient s'ajouter une seconde bière d'abbaye, la Postel.
-Entre 2000 et 2003, la brasserie De Smedt est progressivement prise en charge par le groupe brassicole Heineken et devient la brasserie Affligem BDS (BDS pour brasserie De Smedt)[1]. Le 1er mai 2010, la brasserie devient Brasserie Affligem en se rapprochant du groupe Alken-Maes faisant lui aussi partie du groupe Heineken[2].
+Entre 2000 et 2003, la brasserie De Smedt est progressivement prise en charge par le groupe brassicole Heineken et devient la brasserie Affligem BDS (BDS pour brasserie De Smedt). Le 1er mai 2010, la brasserie devient Brasserie Affligem en se rapprochant du groupe Alken-Maes faisant lui aussi partie du groupe Heineken.
 .
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Principales bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La brasserie produit deux bières d'abbaye reconnues, une bière d'abbaye non reconnue ainsi qu'une bière locale :
 Affligem, bière d'abbaye reconnue se référant à l'abbaye d'Affligem qui se décline en six variétés,
